--- a/datamining/final_data/sorted2018_nltk.xlsx
+++ b/datamining/final_data/sorted2018_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMM2"/>
+  <dimension ref="A1:AKX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,84 +482,84 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>asd</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>introduction</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>households</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>criteria</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>households</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>engineering</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>engineering</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>american</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>student</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>summer</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
@@ -567,482 +567,482 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>special</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>nonverbal</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>methods</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>backgrounds</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>achievement</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>nonverbal</t>
+          <t>research</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>practices</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>first-generation</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>development</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>underserved</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>reviewer</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>mentoring</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>mindset</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>first-generation</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>gifted</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>income</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>norming</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>factors</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>norming</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>effective</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>enrichment</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>less</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>metacognition</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>services</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>gaps</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>excellence</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>environmental</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>excellence</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>gaps</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>asian</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>mentoring</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
+          <t>diversity</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>srs</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>populations</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>srs</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>reviewer</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>academic</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>rules</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>combination</t>
-        </is>
-      </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>program</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>perfectionism</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>intersection</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>addressed</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>perfectionism</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>addressed</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>college</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>article</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
           <t>baldwinpioneer</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>gld</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>activist</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>innovator</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>alexinia</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>activist</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>gld</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>high-achieving</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>rights</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>waiting</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>innovator</t>
+          <t>young</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>early</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>demographic</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>jmai</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
           <t>findings</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>jmai</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>university</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>among</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>demographic</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
           <t>specifically</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
           <t>assq</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>nontraditional</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>nontraditional</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>high</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
@@ -1072,62 +1072,62 @@
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>interventions</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>using</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>models</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>cogat</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>cogat</t>
+          <t>scholars</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>support</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>cogat7</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
@@ -1137,14 +1137,14 @@
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>low</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>cogat7</t>
-        </is>
-      </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>study</t>
@@ -1152,609 +1152,609 @@
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>disability</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
           <t>stage</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>use</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>scholars</t>
+          <t>well</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>family</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>examined</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>twice-exceptional</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>used</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>various</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>contexts</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>within</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>different</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>however</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>including</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>families</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
           <t>parenting</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>contexts</t>
+          <t>focused</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>test</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>black</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>hispanic</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
+          <t>meta-analysis</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
           <t>native</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>hispanic</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>number</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>methodologies</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>general</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>methodologies</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>related</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>culturally</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>focused</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>district</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>typical</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>high-income</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
+          <t>institutional</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>versus</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
           <t>vulnerable</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>high-</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>institutional</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>concerns</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>preparation</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>predictors</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>controlling</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>classrooms</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>preparation</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>high-</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>high-income</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>disabilities</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>higher</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>barriers</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>come</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>practice</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>controlling</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>results</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>predictors</t>
+          <t>cutoff</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>project</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
+          <t>autism</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>spectrum</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>differences</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
           <t>closing</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>autism</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>economically</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>compared</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>spectrum</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>disabilities</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>concerns</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>score</t>
@@ -1762,72 +1762,72 @@
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>set</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>recommendations</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>must</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>size</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>cutoff</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>health</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>coping</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>found</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
@@ -1837,62 +1837,62 @@
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>average</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>cut-scores</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>intraindividual</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>cut-scores</t>
+          <t>unlocked</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>overcome</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>coping</t>
+          <t>necessary</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>explores</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>may</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
@@ -1902,3667 +1902,3462 @@
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>delineates</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>consistently</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>conative</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>breaking</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
           <t>modeling</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>journals</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>delineates</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>overcome</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>conative</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>breaking</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>consistently</t>
-        </is>
-      </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>design</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>work</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>spark</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>explores</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>cycle</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>meaningfully</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>mentors</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>meaningfully</t>
+          <t>metacognitive</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>twice-exceptionality</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>reduced</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>designing</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>sociocultural</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>replication</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>reproducibility</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
           <t>replicability</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>inventory</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>subsequent</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>mentors</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>replication</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>twice-exceptionality</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>preregistration</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>junior</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>sociocultural</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>metacognitive</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>reproducibility</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>reduced</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>spark</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>based</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>designing</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>exhibited</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>sizes</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>conclude</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>intraindividual</t>
+          <t>rigor</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>halo</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>underrepresentation</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>standards</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>sizes</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>ratio</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>sets</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
           <t>finally</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>efficacy</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>conclude</t>
+          <t>curricula</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>plans</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>rigor</t>
+          <t>absolute</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>halo</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>ratio</t>
+          <t>percentage</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>sets</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>underrepresented</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>three</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>examination</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>underrepresentation</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>intellectual</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>school-level</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>group-specific</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>shown</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>growth</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
           <t>part</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>mindsets</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>major</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>school-level</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>yet</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>plans</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>association</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>self-perception</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>systems</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>exhibited</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>structured</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>also</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>group-specific</t>
+          <t>search</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>mindsets</t>
+          <t>described</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>va</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>percentage</t>
+          <t>process</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>persistent</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
           <t>due</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>relative</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>led</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>known</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>persistent</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>documented</t>
-        </is>
-      </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>absolute</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>population</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>state</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
           <t>terms</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>comparing</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>classes</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>furthermore</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
           <t>baccalaureate</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>ap</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>ib</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosed</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>ap/ib</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>interaction</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>classes</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>across</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>furthermore</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>international</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>ib</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>systematic</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>disorder</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>va</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>comparing</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>gpa</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>diagnosed</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>structured</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>represented</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>prepared</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>adolescence</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>emotionally</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
           <t>benefitted</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
+      <c r="RL1" s="1" t="inlineStr">
         <is>
           <t>along</t>
         </is>
       </c>
-      <c r="RK1" s="1" t="inlineStr">
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
         <is>
           <t>adversity</t>
         </is>
       </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>reaching</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>graduated</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>adolescence</t>
+          <t>helped</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>influential</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
           <t>strong</t>
         </is>
       </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>sense</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
           <t>keep</t>
         </is>
       </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>needed</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>reaching</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>eighth-grade</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>regard</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>constraining</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>conducive</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>represented</t>
+          <t>barrier</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>prepared</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>influential</t>
+          <t>community</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>scored</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>helped</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>graduated</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>asked</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>45</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>emotionally</t>
+          <t>36</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>gpa</t>
+          <t>14</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>teacher-nominated</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
+          <t>mathematical</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
           <t>exposing</t>
         </is>
       </c>
-      <c r="ST1" s="1" t="inlineStr">
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>poorer</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>sixth-</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>predicts</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>disentangling</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>three-level</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>wealth</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>districts</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
         <is>
           <t>relatedness</t>
         </is>
       </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>isolation</t>
         </is>
       </c>
-      <c r="SW1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>inhibiting</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>integrated</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>isolated</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>plenty</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>interfered</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>perceived</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>kind</t>
         </is>
       </c>
-      <c r="SX1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>mayhem</t>
         </is>
       </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>perceived</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>plenty</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>sixth-</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>disentangling</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>isolated</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>districts</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>poorer</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>predicts</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>roles</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>barrier</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>eighth-grade</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>fit</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>constraining</t>
-        </is>
-      </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>conducive</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>competence</t>
+          <t>system</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>particular</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>largest</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>interfered</t>
+          <t>mainly</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>inhibiting</t>
+          <t>making</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>national</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>numerical</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>asked</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>standardization</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>similarly</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>integrated</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>teacher-nominated</t>
+          <t>recommendation</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>correlations</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>wealth</t>
+          <t>real</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>past</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>extended</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>regard</t>
+          <t>income-related</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>three-level</t>
+          <t>disparities</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
+          <t>united</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>educator</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>eye</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>frontloading</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>u.s.</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>growing</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>improved</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>income-based</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>countries</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>induction</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>meeting</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>norms</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>poverty-based</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>psychosocial</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>controversies</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>15-year</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>recruitment</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>investigating</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>widespread</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
           <t>questions</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>u.s.</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>recruit</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>retain</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualized</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>retention</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>theorize</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>two-phase</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>accountability</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
         <is>
           <t>broadened</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>growing</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>recruit</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>mainly</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>numerical</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>recruitment</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>particular</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>universal</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>conceptual</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>guidelines</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>selective</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>semistructured</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>benefited</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>engaged</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>evidence-based</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>homogeneous</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
         <is>
           <t>choosing</t>
         </is>
       </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>published</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>extended</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>like-minded</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
         <is>
           <t>combining</t>
         </is>
       </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
+      <c r="XE1" s="1" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>countries</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>controversies</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualized</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>conceptual</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>largest</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>guidelines</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>universal</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>widespread</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>accountability</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>poverty-based</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>norms</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>retain</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>two-phase</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>theorize</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>induction</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>indeed</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>income-related</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>income-based</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>educator</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>improved</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>eye</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>retention</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>15-year</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>frontloading</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>requires</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>rule</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>similarly</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>selection</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>selective</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
       <c r="XF1" s="1" t="inlineStr">
         <is>
-          <t>standardization</t>
+          <t>nurtured</t>
         </is>
       </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>short</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
-          <t>investigating</t>
+          <t>advocacy</t>
         </is>
       </c>
       <c r="XK1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>crucial</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>engaged</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>evidence-based</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>report</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
-          <t>grounded</t>
+          <t>191,287,563</t>
         </is>
       </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>homogeneous</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>focuses</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>like-minded</t>
+          <t>portfolios</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>nurtured</t>
+          <t>exposure</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>orientation</t>
+          <t>eligible</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>semistructured</t>
+          <t>d-type</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>cohen</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
-          <t>surveys</t>
+          <t>narrow</t>
         </is>
       </c>
       <c r="YC1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>benefited</t>
+          <t>largely</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>relies</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>exactly</t>
         </is>
       </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>disparities</t>
+          <t>inequity</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
+          <t>inequities</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>equitability</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>consisting</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>consider</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>checklists</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>calculated</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>inductive</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>fits</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>assessments</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>predictive</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>operationalized</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>transcripts</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
           <t>home</t>
         </is>
       </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>supporting</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>transcripts</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>ethnic</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>consisted</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>interpretable</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>internally</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
         <is>
           <t>resilient</t>
         </is>
       </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>advocacy</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>exposure</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>focuses</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>protocols</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
         <is>
           <t>high-potential</t>
         </is>
       </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>multilayered</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>navigated</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>yielded</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>nothing</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>two-factor</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenological</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>practitioners</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>several</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>reaction</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
         <is>
           <t>recognition</t>
         </is>
       </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>fits</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>reaction</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>play</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenological</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>nothing</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>navigated</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>multilayered</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>inductive</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>exactly</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>proportional</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>iq</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>introduces</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>nationally</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>ld</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesized</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>dual</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>discrepancy</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>disagreement</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>harking</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>deficits</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>criterion</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>fields</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>commonly</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>combine</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>facilitating</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>economics</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>underidentified</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>tend</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>trustworthiness</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>directed</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>readers</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>questionable</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>qrps</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>preprints</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>weaknesses</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>scientific</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>pre</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>peer-review</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>strengths</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>stand-alone</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>school-age</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>sociological</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>paradigms</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>p-hacking</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>representative</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>statistical</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>medicine</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>suffers</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>strengthen</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>elimination</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>representing</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>crisis</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>readiness</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>recognizing</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>qualified</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>biology</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>participate</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>responding</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>nurturing</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>moderately</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>//psyarxiv.com/nhuv3/</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>later</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>larger</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
         <is>
           <t>indicating</t>
         </is>
       </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>later</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>questionable</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>preprints</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>pre</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>peer-review</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>paradigms</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>p-hacking</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>origin</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>medicine</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>introduces</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>harking</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>fields</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>facilitating</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>economics</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>directed</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>crisis</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>biology</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>because</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>//psyarxiv.com/nhuv3/</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>qrps</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>readers</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>relies</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>moderately</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>nurturing</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>participate</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>preparing</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>qualified</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>readiness</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>recognizing</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>responding</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>strengthen</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>underidentified</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>trustworthiness</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>suffers</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>sociological</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>scientific</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>assessments</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>largely</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>combine</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>alternative</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>standardized</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>representing</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>proportional</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>portfolios</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>deficits</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>diagnostic</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>representative</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>weaknesses</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>strengths</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>stand-alone</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>school-age</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>disagreement</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>nationally</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>ld</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesized</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>dual</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>discrepancy</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>narrow</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>iq</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>items</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>protocols</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>predictive</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>operationalized</t>
-        </is>
-      </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>criterion-related</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>interpretable</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>two-factor</t>
+          <t>functioned</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>internally</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>elimination</t>
+          <t>implicit</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>criterion-related</t>
+          <t>separately</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>spotting</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>consisted</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>inequity</t>
+          <t>conceptions</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>tasks</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>coaching</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>yielded</t>
+          <t>comprised</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>evaluative</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>eligible</t>
+          <t>comparative</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>guided</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>equitability</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>consisting</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>received</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>checklists</t>
+          <t>misconception</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>calculated</t>
+          <t>resulted</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>inequities</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>416</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>mistakes</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>d-type</t>
+          <t>affordances</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>cohen</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>191,287,563</t>
+          <t>tinkering</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>resulted</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>talent-spotting</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>quasi-experimental</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>institute</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>welch</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>multilevel</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>nominate</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>out-of-level</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>theories</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>strivings</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
           <t>pathway</t>
         </is>
       </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>portion</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>quasi-experimental</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>out-of-level</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>talent-spotting</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>scientist</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>separately</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>spotting</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>throughout</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>tinkering</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>tool</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>multilevel</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>nominate</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1,387</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>1,387</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>affordances</t>
+          <t>language</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>coaching</t>
+          <t>english</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>comparative</t>
+          <t>modifier</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>comprised</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>functioned</t>
+          <t>socioeconomic</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>kindergartners</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>guided</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>implement</t>
+          <t>gifted/talented</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>institute</t>
+          <t>begun</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>gifted/talented</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>kindergartners</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>theories</t>
+          <t>cognition</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>welch</t>
+          <t>capture</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>cips</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>begun</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>comprehensive</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>cos-r</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>cpr</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>constitutes</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>dcos</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>modifier</t>
+          <t>established</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>historically</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>strivings</t>
+          <t>inconsistently</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>inform</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>neglected</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>phenotypic</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>responsiveness</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>cpr-form</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>kulieke</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>conceptions</t>
+          <t>without</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>way</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>undertaken</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>evaluative</t>
+          <t>tof</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>implicit</t>
+          <t>tied</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>misconception</t>
+          <t>scales-revised</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>mistakes</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
+          <t>record-form</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>record</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>purdue</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>observations</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>screened</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>extant</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>evaluation</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>2,379</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>subscales</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
           <t>resiliency</t>
         </is>
       </c>
-      <c r="AHX1" s="1" t="inlineStr">
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>records</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>psychopathology</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>parent-child</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
         <is>
           <t>newly</t>
         </is>
       </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>parent-child</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>psychopathology</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>records</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>robust</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>malleable</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>investigations</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>given</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>five</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>existing</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
+        <is>
+          <t>exam</t>
+        </is>
+      </c>
+      <c r="AJE1" s="1" t="inlineStr">
+        <is>
+          <t>events</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>emphasis</t>
+        </is>
+      </c>
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>elevated</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>collected</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>burnout</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>avoidance</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>authoritative</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>9-12</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
         <is>
           <t>self-report</t>
         </is>
       </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>cpr</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>cos-r</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>comprehensive</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>closely</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>cips</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>capture</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>malleable</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>stressors</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
         <is>
           <t>via</t>
         </is>
       </c>
-      <c r="AIM1" s="1" t="inlineStr">
+      <c r="AJV1" s="1" t="inlineStr">
+        <is>
+          <t>targeted</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>validating</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>tools</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>suggesting</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
         <is>
           <t>unrelated</t>
         </is>
       </c>
-      <c r="AIN1" s="1" t="inlineStr">
+      <c r="AKB1" s="1" t="inlineStr">
         <is>
           <t>understand</t>
         </is>
       </c>
-      <c r="AIO1" s="1" t="inlineStr">
+      <c r="AKC1" s="1" t="inlineStr">
         <is>
           <t>thus</t>
         </is>
       </c>
-      <c r="AIP1" s="1" t="inlineStr">
+      <c r="AKD1" s="1" t="inlineStr">
         <is>
           <t>targeting</t>
         </is>
       </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>stressors</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>investigations</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>given</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>2,379</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>9-12</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>authoritative</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>avoidance</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>burnout</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>conflict</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>elevated</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>emphasis</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>events</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>exam</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>existing</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>dcos</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>cpr-form</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>phenotypic</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>cognition</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>consensus</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>constitutes</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>established</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>historically</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
       <c r="AKE1" s="1" t="inlineStr">
         <is>
-          <t>inform</t>
+          <t>deductive</t>
         </is>
       </c>
       <c r="AKF1" s="1" t="inlineStr">
         <is>
-          <t>neglected</t>
+          <t>572</t>
         </is>
       </c>
       <c r="AKG1" s="1" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="AKH1" s="1" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>buffered</t>
         </is>
       </c>
       <c r="AKI1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>connected</t>
         </is>
       </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>responsiveness</t>
+          <t>connecting</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AKL1" s="1" t="inlineStr">
         <is>
-          <t>screened</t>
+          <t>positively</t>
         </is>
       </c>
       <c r="AKM1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>german</t>
         </is>
       </c>
       <c r="AKN1" s="1" t="inlineStr">
         <is>
-          <t>subscales</t>
+          <t>linking</t>
         </is>
       </c>
       <c r="AKO1" s="1" t="inlineStr">
         <is>
-          <t>suggesting</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>rater</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>raters</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>validating</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>inconsistently</t>
+          <t>small</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="AKV1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="AKW1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="AKX1" s="1" t="inlineStr">
         <is>
-          <t>undertaken</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>extant</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>improve</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>kulieke</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>leaders</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>purdue</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>tied</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>scales-revised</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>tof</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>record-form</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>record</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>linking</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>relations</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>raters</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>rater</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>positively</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>participating</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
           <t>independently</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>german</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>deductive</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>connecting</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>connected</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>buffered</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>verbal</t>
         </is>
       </c>
     </row>
@@ -5577,64 +5372,64 @@
         <v>2018</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E2" t="n">
         <v>0.98</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0.76</v>
       </c>
       <c r="I2" t="n">
-        <v>0.68</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="K2" t="n">
         <v>0.63</v>
       </c>
       <c r="L2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.62</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.59</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="O2" t="n">
         <v>0.58</v>
       </c>
       <c r="P2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.57</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="T2" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="U2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.54</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.53</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.52</v>
+        <v>0.5299999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>0.52</v>
@@ -5643,7 +5438,7 @@
         <v>0.52</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5199999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="AA2" t="n">
         <v>0.51</v>
@@ -5658,7 +5453,7 @@
         <v>0.49</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AF2" t="n">
         <v>0.48</v>
@@ -5679,16 +5474,16 @@
         <v>0.47</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AN2" t="n">
         <v>0.44</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AP2" t="n">
         <v>0.43</v>
@@ -5697,31 +5492,31 @@
         <v>0.43</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="BA2" t="n">
         <v>0.41</v>
@@ -5730,37 +5525,37 @@
         <v>0.41</v>
       </c>
       <c r="BC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BH2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BI2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BK2" t="n">
         <v>0.4</v>
       </c>
-      <c r="BG2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BH2" t="n">
+      <c r="BL2" t="n">
         <v>0.39</v>
       </c>
-      <c r="BI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BJ2" t="n">
+      <c r="BM2" t="n">
         <v>0.3800000000000001</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.38</v>
       </c>
       <c r="BN2" t="n">
         <v>0.38</v>
@@ -5772,13 +5567,13 @@
         <v>0.38</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="BT2" t="n">
         <v>0.37</v>
@@ -5799,10 +5594,10 @@
         <v>0.37</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="CB2" t="n">
         <v>0.36</v>
@@ -5811,16 +5606,16 @@
         <v>0.36</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CH2" t="n">
         <v>0.34</v>
@@ -5835,10 +5630,10 @@
         <v>0.34</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CN2" t="n">
         <v>0.33</v>
@@ -5877,10 +5672,10 @@
         <v>0.33</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DB2" t="n">
         <v>0.32</v>
@@ -5907,13 +5702,13 @@
         <v>0.32</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.32</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="DM2" t="n">
         <v>0.31</v>
@@ -5931,7 +5726,7 @@
         <v>0.31</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DS2" t="n">
         <v>0.3</v>
@@ -5943,10 +5738,10 @@
         <v>0.3</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DX2" t="n">
         <v>0.29</v>
@@ -5961,28 +5756,28 @@
         <v>0.29</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EE2" t="n">
         <v>0.28</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EJ2" t="n">
         <v>0.27</v>
@@ -6000,16 +5795,16 @@
         <v>0.27</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ES2" t="n">
         <v>0.26</v>
@@ -6024,16 +5819,16 @@
         <v>0.26</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FA2" t="n">
         <v>0.25</v>
@@ -6066,19 +5861,19 @@
         <v>0.25</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FP2" t="n">
         <v>0.24</v>
@@ -6120,22 +5915,22 @@
         <v>0.24</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GI2" t="n">
         <v>0.23</v>
@@ -6168,49 +5963,49 @@
         <v>0.23</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HH2" t="n">
         <v>0.21</v>
@@ -6306,22 +6101,22 @@
         <v>0.2</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IS2" t="n">
         <v>0.19</v>
@@ -6366,31 +6161,31 @@
         <v>0.19</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JP2" t="n">
         <v>0.18</v>
@@ -6417,34 +6212,34 @@
         <v>0.18</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KH2" t="n">
         <v>0.17</v>
@@ -6510,28 +6305,28 @@
         <v>0.17</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LK2" t="n">
         <v>0.16</v>
@@ -6627,40 +6422,40 @@
         <v>0.16</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="NB2" t="n">
         <v>0.15</v>
@@ -6693,43 +6488,43 @@
         <v>0.15</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NY2" t="n">
         <v>0.14</v>
@@ -6786,40 +6581,40 @@
         <v>0.14</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PC2" t="n">
         <v>0.13</v>
@@ -6849,16 +6644,16 @@
         <v>0.13</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PP2" t="n">
         <v>0.12</v>
@@ -6951,49 +6746,49 @@
         <v>0.12</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RI2" t="n">
         <v>0.11</v>
@@ -7044,64 +6839,64 @@
         <v>0.11</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SS2" t="n">
         <v>0.1</v>
@@ -7188,64 +6983,64 @@
         <v>0.1</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="UO2" t="n">
         <v>0.09</v>
@@ -7461,82 +7256,82 @@
         <v>0.09</v>
       </c>
       <c r="XH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="XZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YH2" t="n">
         <v>0.08</v>
@@ -7965,100 +7760,100 @@
         <v>0.08</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEZ2" t="n">
         <v>0.07000000000000001</v>
@@ -8181,109 +7976,109 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHW2" t="n">
         <v>0.06</v>
@@ -8466,186 +8261,63 @@
         <v>0.06</v>
       </c>
       <c r="AKE2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKF2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKG2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKH2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKI2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKJ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKK2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKL2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKM2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKN2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKO2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKP2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKQ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKR2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKS2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKT2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKU2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKV2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKW2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AKX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AMM2" t="n">
         <v>0.05</v>
       </c>
     </row>
